--- a/data/rivers/rivers_list.xlsx
+++ b/data/rivers/rivers_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20379"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morey\Documents\R\rforecast\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morey\Documents\R_Projects\rforecast\data\rivers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92288069-2496-4051-906F-A431F1FD9215}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE7469A-076B-4D14-8A23-12A1818532E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" xr2:uid="{E8E6FF5C-68F0-4E9E-BDC4-CF9C5C41835F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" xr2:uid="{E8E6FF5C-68F0-4E9E-BDC4-CF9C5C41835F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -155,7 +155,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -171,9 +171,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -211,7 +211,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -317,7 +317,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -470,7 +470,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,7 +629,7 @@
         <v>24</v>
       </c>
       <c r="B8">
-        <v>5296</v>
+        <v>5292</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>

--- a/data/rivers/rivers_list.xlsx
+++ b/data/rivers/rivers_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20379"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morey\Documents\R_Projects\rforecast\data\rivers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morey\Documents\R\rforecast\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE7469A-076B-4D14-8A23-12A1818532E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92288069-2496-4051-906F-A431F1FD9215}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" xr2:uid="{E8E6FF5C-68F0-4E9E-BDC4-CF9C5C41835F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" xr2:uid="{E8E6FF5C-68F0-4E9E-BDC4-CF9C5C41835F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -155,7 +155,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -171,9 +171,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -211,7 +211,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -317,7 +317,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -470,7 +470,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,7 +629,7 @@
         <v>24</v>
       </c>
       <c r="B8">
-        <v>5292</v>
+        <v>5296</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>

--- a/data/rivers/rivers_list.xlsx
+++ b/data/rivers/rivers_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20379"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morey\Documents\R\rforecast\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morey\Documents\R_Projects\rforecast\data\rivers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92288069-2496-4051-906F-A431F1FD9215}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44096D42-B2C5-46EA-9009-F2FEA5488972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" xr2:uid="{E8E6FF5C-68F0-4E9E-BDC4-CF9C5C41835F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" xr2:uid="{E8E6FF5C-68F0-4E9E-BDC4-CF9C5C41835F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,9 +102,6 @@
     <t>Елизавета Бахарева</t>
   </si>
   <si>
-    <t xml:space="preserve"> ЯСНАЯ ПОЛЯНА - Р.ОРЕХОBКА</t>
-  </si>
-  <si>
     <t xml:space="preserve"> МАЛИНОВО</t>
   </si>
   <si>
@@ -115,6 +112,9 @@
   </si>
   <si>
     <t xml:space="preserve"> СОЧИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ЯСНАЯ ПОЛЯНА - ПОС.ПОЛЯНЫ</t>
   </si>
 </sst>
 </file>
@@ -155,7 +155,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -171,9 +171,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -211,7 +211,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -317,7 +317,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -470,7 +470,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,10 +629,10 @@
         <v>24</v>
       </c>
       <c r="B8">
-        <v>5296</v>
+        <v>5292</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D8">
         <v>1790</v>
@@ -641,18 +641,18 @@
         <v>31884</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9">
         <v>82060</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9">
         <v>839</v>
@@ -661,7 +661,7 @@
         <v>37099</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
